--- a/xlsx/瑞士_intext.xlsx
+++ b/xlsx/瑞士_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1423">
   <si>
     <t>瑞士</t>
   </si>
@@ -29,7 +29,7 @@
     <t>德语</t>
   </si>
   <si>
-    <t>政策_政策_美國_瑞士</t>
+    <t>体育运动_体育运动_奥林匹克运动会_瑞士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -3110,820 +3110,862 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>法語圈國際組織</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞美尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉納法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中非共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>幾內亞比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
+  </si>
+  <si>
+    <t>新不倫瑞克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>魁北克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>比利时法语社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新喀里多尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
+  </si>
+  <si>
+    <t>安大略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>布特羅斯·布特羅斯-加利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
+  </si>
+  <si>
+    <t>庄美楷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>法语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>法語系運動會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>法國電視國際五台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>法語圈國際組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
-  </si>
-  <si>
-    <t>新不倫瑞克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>魁北克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>比利时法语社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新喀里多尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
-  </si>
-  <si>
-    <t>安大略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>布特羅斯·布特羅斯-加利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
-  </si>
-  <si>
-    <t>庄美楷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>法语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>法語系運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>法國電視國際五台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -4590,7 +4632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I762"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,7 +4947,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -21058,7 +21100,7 @@
         <v>1036</v>
       </c>
       <c r="G568" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H568" t="s">
         <v>4</v>
@@ -21087,7 +21129,7 @@
         <v>1038</v>
       </c>
       <c r="G569" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -21145,7 +21187,7 @@
         <v>1042</v>
       </c>
       <c r="G571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H571" t="s">
         <v>4</v>
@@ -21174,7 +21216,7 @@
         <v>1044</v>
       </c>
       <c r="G572" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H572" t="s">
         <v>4</v>
@@ -21203,7 +21245,7 @@
         <v>1046</v>
       </c>
       <c r="G573" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -21232,7 +21274,7 @@
         <v>1048</v>
       </c>
       <c r="G574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -21290,7 +21332,7 @@
         <v>1052</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -21319,7 +21361,7 @@
         <v>1054</v>
       </c>
       <c r="G577" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -21377,7 +21419,7 @@
         <v>1058</v>
       </c>
       <c r="G579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -21406,7 +21448,7 @@
         <v>1060</v>
       </c>
       <c r="G580" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H580" t="s">
         <v>4</v>
@@ -21435,7 +21477,7 @@
         <v>1062</v>
       </c>
       <c r="G581" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -21464,7 +21506,7 @@
         <v>1064</v>
       </c>
       <c r="G582" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -21493,7 +21535,7 @@
         <v>1066</v>
       </c>
       <c r="G583" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H583" t="s">
         <v>4</v>
@@ -21522,7 +21564,7 @@
         <v>1068</v>
       </c>
       <c r="G584" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H584" t="s">
         <v>4</v>
@@ -21551,7 +21593,7 @@
         <v>1070</v>
       </c>
       <c r="G585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -21580,7 +21622,7 @@
         <v>1072</v>
       </c>
       <c r="G586" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -21609,7 +21651,7 @@
         <v>1074</v>
       </c>
       <c r="G587" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -21638,7 +21680,7 @@
         <v>1076</v>
       </c>
       <c r="G588" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -21667,7 +21709,7 @@
         <v>1078</v>
       </c>
       <c r="G589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H589" t="s">
         <v>4</v>
@@ -21696,7 +21738,7 @@
         <v>1080</v>
       </c>
       <c r="G590" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -21725,7 +21767,7 @@
         <v>1082</v>
       </c>
       <c r="G591" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -21754,7 +21796,7 @@
         <v>1084</v>
       </c>
       <c r="G592" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -21806,13 +21848,13 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>787</v>
+        <v>1087</v>
       </c>
       <c r="F594" t="s">
-        <v>788</v>
+        <v>1088</v>
       </c>
       <c r="G594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H594" t="s">
         <v>4</v>
@@ -21835,10 +21877,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F595" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21864,13 +21906,13 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F596" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G596" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H596" t="s">
         <v>4</v>
@@ -21893,10 +21935,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F597" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21922,10 +21964,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F598" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G598" t="n">
         <v>3</v>
@@ -21951,13 +21993,13 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1095</v>
+        <v>787</v>
       </c>
       <c r="F599" t="s">
-        <v>1096</v>
+        <v>788</v>
       </c>
       <c r="G599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -21986,7 +22028,7 @@
         <v>1098</v>
       </c>
       <c r="G600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -22015,7 +22057,7 @@
         <v>1100</v>
       </c>
       <c r="G601" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -22044,7 +22086,7 @@
         <v>1102</v>
       </c>
       <c r="G602" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -22102,7 +22144,7 @@
         <v>1106</v>
       </c>
       <c r="G604" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -22247,7 +22289,7 @@
         <v>1116</v>
       </c>
       <c r="G609" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -22305,7 +22347,7 @@
         <v>1120</v>
       </c>
       <c r="G611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -22334,7 +22376,7 @@
         <v>1122</v>
       </c>
       <c r="G612" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -22363,7 +22405,7 @@
         <v>1124</v>
       </c>
       <c r="G613" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -22392,7 +22434,7 @@
         <v>1126</v>
       </c>
       <c r="G614" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -22537,7 +22579,7 @@
         <v>1136</v>
       </c>
       <c r="G619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -22711,7 +22753,7 @@
         <v>1148</v>
       </c>
       <c r="G625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -22769,7 +22811,7 @@
         <v>1152</v>
       </c>
       <c r="G627" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -22850,10 +22892,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>163</v>
+        <v>1157</v>
       </c>
       <c r="F630" t="s">
-        <v>164</v>
+        <v>1158</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22879,10 +22921,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="F631" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22908,13 +22950,13 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F632" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22937,10 +22979,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1087</v>
+        <v>1163</v>
       </c>
       <c r="F633" t="s">
-        <v>1088</v>
+        <v>1164</v>
       </c>
       <c r="G633" t="n">
         <v>2</v>
@@ -22966,10 +23008,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="F634" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22995,10 +23037,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F635" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -23024,13 +23066,13 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1165</v>
+        <v>163</v>
       </c>
       <c r="F636" t="s">
-        <v>1166</v>
+        <v>164</v>
       </c>
       <c r="G636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -23053,10 +23095,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F637" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -23082,13 +23124,13 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F638" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G638" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -23111,13 +23153,13 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1097</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1098</v>
       </c>
       <c r="G639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -23204,7 +23246,7 @@
         <v>1178</v>
       </c>
       <c r="G642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -23494,7 +23536,7 @@
         <v>1198</v>
       </c>
       <c r="G652" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -23662,13 +23704,13 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1095</v>
+        <v>1209</v>
       </c>
       <c r="F658" t="s">
-        <v>1096</v>
+        <v>1210</v>
       </c>
       <c r="G658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -23691,10 +23733,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F659" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23720,13 +23762,13 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F660" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -23749,10 +23791,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F661" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23778,10 +23820,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F662" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23807,10 +23849,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F663" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23836,10 +23878,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1219</v>
+        <v>1105</v>
       </c>
       <c r="F664" t="s">
-        <v>1220</v>
+        <v>1106</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23900,7 +23942,7 @@
         <v>1224</v>
       </c>
       <c r="G666" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H666" t="s">
         <v>4</v>
@@ -24422,7 +24464,7 @@
         <v>1260</v>
       </c>
       <c r="G684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -24770,7 +24812,7 @@
         <v>1284</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -24857,7 +24899,7 @@
         <v>1290</v>
       </c>
       <c r="G699" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -24915,7 +24957,7 @@
         <v>1294</v>
       </c>
       <c r="G701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -24938,10 +24980,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1033</v>
+        <v>1295</v>
       </c>
       <c r="F702" t="s">
-        <v>1034</v>
+        <v>1296</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -24967,10 +25009,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F703" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24996,10 +25038,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F704" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -25025,13 +25067,13 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F705" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G705" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H705" t="s">
         <v>4</v>
@@ -25054,13 +25096,13 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F706" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="G706" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -25083,13 +25125,13 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1031</v>
+        <v>1305</v>
       </c>
       <c r="F707" t="s">
-        <v>1032</v>
+        <v>1306</v>
       </c>
       <c r="G707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -25112,10 +25154,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1303</v>
+        <v>1041</v>
       </c>
       <c r="F708" t="s">
-        <v>1304</v>
+        <v>1042</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -25141,10 +25183,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F709" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25170,10 +25212,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F710" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -25199,10 +25241,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F711" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25228,13 +25270,13 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F712" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="G712" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -25257,10 +25299,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F713" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25286,10 +25328,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F714" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25315,10 +25357,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F715" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25344,10 +25386,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F716" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -25373,13 +25415,13 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F717" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -25402,10 +25444,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F718" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25431,10 +25473,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F719" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25460,10 +25502,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F720" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25489,10 +25531,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>565</v>
+        <v>1331</v>
       </c>
       <c r="F721" t="s">
-        <v>566</v>
+        <v>1332</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25518,10 +25560,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="F722" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -25547,13 +25589,13 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="F723" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -25576,10 +25618,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="F724" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -25605,10 +25647,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="F725" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25634,10 +25676,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="F726" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -25663,10 +25705,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1339</v>
+        <v>565</v>
       </c>
       <c r="F727" t="s">
-        <v>1340</v>
+        <v>566</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -25692,10 +25734,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F728" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -25721,10 +25763,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F729" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -25750,10 +25792,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F730" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -25779,10 +25821,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F731" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -25808,10 +25850,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F732" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -25837,10 +25879,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F733" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -25866,10 +25908,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F734" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -25895,10 +25937,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F735" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -25924,10 +25966,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F736" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -25953,10 +25995,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F737" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -25982,10 +26024,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F738" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -26011,10 +26053,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F739" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -26040,10 +26082,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F740" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -26069,10 +26111,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F741" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -26098,10 +26140,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F742" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -26127,10 +26169,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F743" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -26156,10 +26198,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F744" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -26185,10 +26227,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F745" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26214,10 +26256,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F746" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26243,10 +26285,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F747" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26272,10 +26314,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F748" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26301,10 +26343,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F749" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -26330,10 +26372,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F750" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26359,13 +26401,13 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="F751" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="G751" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H751" t="s">
         <v>4</v>
@@ -26388,10 +26430,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F752" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -26417,10 +26459,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F753" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26446,10 +26488,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F754" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -26475,10 +26517,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F755" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26504,10 +26546,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F756" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -26533,13 +26575,13 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F757" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G757" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -26562,10 +26604,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>993</v>
+        <v>1403</v>
       </c>
       <c r="F758" t="s">
-        <v>994</v>
+        <v>1404</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -26591,10 +26633,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="F759" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -26620,10 +26662,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="F760" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -26649,10 +26691,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="F761" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -26678,10 +26720,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="F762" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -26690,6 +26732,180 @@
         <v>4</v>
       </c>
       <c r="I762" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1</v>
+      </c>
+      <c r="D763" t="n">
+        <v>762</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1</v>
+      </c>
+      <c r="H763" t="s">
+        <v>4</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>0</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1</v>
+      </c>
+      <c r="D764" t="n">
+        <v>763</v>
+      </c>
+      <c r="E764" t="s">
+        <v>993</v>
+      </c>
+      <c r="F764" t="s">
+        <v>994</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1</v>
+      </c>
+      <c r="H764" t="s">
+        <v>4</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="s">
+        <v>0</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1</v>
+      </c>
+      <c r="D765" t="n">
+        <v>764</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1</v>
+      </c>
+      <c r="H765" t="s">
+        <v>4</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1</v>
+      </c>
+      <c r="D766" t="n">
+        <v>765</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1</v>
+      </c>
+      <c r="H766" t="s">
+        <v>4</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1</v>
+      </c>
+      <c r="D767" t="n">
+        <v>766</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1</v>
+      </c>
+      <c r="H767" t="s">
+        <v>4</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="s">
+        <v>0</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1</v>
+      </c>
+      <c r="D768" t="n">
+        <v>767</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1</v>
+      </c>
+      <c r="H768" t="s">
+        <v>4</v>
+      </c>
+      <c r="I768" t="n">
         <v>3</v>
       </c>
     </row>
